--- a/doc/Idées/Biblio/Annexe - liste de composants.xlsx
+++ b/doc/Idées/Biblio/Annexe - liste de composants.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\etude\S5\Projet\Snoopy_polytech\Idées\Biblio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulbi\Dropbox\Mon PC (DESKTOP-CNV4O85)\Desktop\Travail\ROB3\Rob_exp\Projet\Snoopytech\doc\Idées\Biblio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928C25B7-D209-4E6F-8EB6-F4097DA34692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A8ACA3-1AD7-40E1-AEAF-C1EDFB45396D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3560E6F7-E16C-476D-B8B1-12EB76F63514}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3560E6F7-E16C-476D-B8B1-12EB76F63514}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Moteurs</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Prix total</t>
   </si>
   <si>
-    <t>Poids</t>
-  </si>
-  <si>
     <t>Lien</t>
   </si>
   <si>
@@ -81,6 +78,18 @@
   </si>
   <si>
     <t>Color: 4xESC with wires</t>
+  </si>
+  <si>
+    <t>Roulement</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/32997948364.html?algo_pvid=f64572da-108a-4531-a5a0-b856b462b1c6&amp;algo_exp_id=f64572da-108a-4531-a5a0-b856b462b1c6-7&amp;pdp_ext_f=%7B%22sku_id%22%3A%2266958865882%22%7D&amp;pdp_npi=2%40dis%21EUR%210.95%210.95%21%21%212.76%21%21%400b0a187b16651255256126173ec49c%2166958865882%21sea&amp;curPageLogUid=OfDWACxdeGQE</t>
+  </si>
+  <si>
+    <t>Poids(g)</t>
+  </si>
+  <si>
+    <t>DUALO 6906ZZ 6906-2RS</t>
   </si>
 </sst>
 </file>
@@ -88,7 +97,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -133,7 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -460,21 +469,21 @@
   <dimension ref="B2:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
-    <col min="4" max="8" width="11.42578125" style="1"/>
-    <col min="9" max="9" width="34.42578125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="2" width="11.44140625" style="1"/>
+    <col min="3" max="3" width="22.88671875" style="1" customWidth="1"/>
+    <col min="4" max="8" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="34.44140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -486,21 +495,21 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>12</v>
@@ -516,18 +525,18 @@
         <v>91.4</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="1" t="s">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>4</v>
@@ -543,79 +552,103 @@
         <v>33.200000000000003</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="F5" s="2">
+        <f>E5*D5</f>
+        <v>7.6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E27" s="2"/>
     </row>
   </sheetData>

--- a/doc/Idées/Biblio/Annexe - liste de composants.xlsx
+++ b/doc/Idées/Biblio/Annexe - liste de composants.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulbi\Dropbox\Mon PC (DESKTOP-CNV4O85)\Desktop\Travail\ROB3\Rob_exp\Projet\Snoopytech\doc\Idées\Biblio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\etude\S5\Projet\Snoopytech\doc\Idées\Biblio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A8ACA3-1AD7-40E1-AEAF-C1EDFB45396D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6F9841-7A97-4B4E-B76D-2D031E2B41AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3560E6F7-E16C-476D-B8B1-12EB76F63514}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3560E6F7-E16C-476D-B8B1-12EB76F63514}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Moteurs</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>DUALO 6906ZZ 6906-2RS</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005002248466483.html?spm=a2g0o.productlist.0.0.26b421abnfmSYq&amp;algo_pvid=47e13833-caa3-437f-9553-01e57919688d&amp;algo_exp_id=47e13833-caa3-437f-9553-01e57919688d-45&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000019728171207%22%7D&amp;pdp_npi=2%40dis%21EUR%218.39%217.14%21%21%214.99%21%21%400b0a050b16651254583308408eed58%2112000019728171207%21sea&amp;curPageLogUid=nz516Ros1nuv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color: 2pcs 30x28x500mm </t>
+  </si>
+  <si>
+    <t>Tube carbone</t>
+  </si>
+  <si>
+    <t>Tube en fibre de carbone brillant 3K</t>
   </si>
 </sst>
 </file>
@@ -137,7 +149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -146,9 +158,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,19 +478,20 @@
   <dimension ref="B2:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.44140625" style="1"/>
-    <col min="3" max="3" width="22.88671875" style="1" customWidth="1"/>
-    <col min="4" max="8" width="11.44140625" style="1"/>
-    <col min="9" max="9" width="34.44140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="1" customWidth="1"/>
+    <col min="4" max="8" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="34.42578125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
@@ -504,7 +514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -554,11 +564,11 @@
       <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
@@ -585,70 +595,127 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <f>18.37+4.99</f>
+        <v>23.36</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ref="F6:F14" si="0">E6*D6</f>
+        <v>23.36</v>
+      </c>
+      <c r="G6" s="1">
+        <v>71</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E27" s="2"/>
     </row>
   </sheetData>

--- a/doc/Idées/Biblio/Annexe - liste de composants.xlsx
+++ b/doc/Idées/Biblio/Annexe - liste de composants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\etude\S5\Projet\Snoopytech\doc\Idées\Biblio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6F9841-7A97-4B4E-B76D-2D031E2B41AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57611FF9-D36D-42D9-9B84-2FCD9FEA9918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3560E6F7-E16C-476D-B8B1-12EB76F63514}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Moteurs</t>
   </si>
@@ -102,6 +102,33 @@
   </si>
   <si>
     <t>Tube en fibre de carbone brillant 3K</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/Scanradius-LIDAR-Sensorscanner-Vermeidung-Hindernissen-Navigation/dp/B07VLFGT27/ref=asc_df_B07VLFGT27/?tag=googshopfr-21&amp;linkCode=df0&amp;hvadid=411439987151&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17858514273165735039&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9054956&amp;hvtargid=pla-843524520219&amp;psc=1&amp;tag=&amp;ref=&amp;adgrpid=95238321811&amp;hvpone=&amp;hvptwo=&amp;hvadid=411439987151&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17858514273165735039&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9054956&amp;hvtargid=pla-843524520219</t>
+  </si>
+  <si>
+    <t>Lidar</t>
+  </si>
+  <si>
+    <t>youyeetoo Slamtec RPLIDAR</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/32880359778.html?spm=a2g0o.productlist.0.0.57cd4b01vpsFWo&amp;algo_pvid=1dd6e5ce-0655-4592-a3d3-c60e37e11f4e&amp;algo_exp_id=1dd6e5ce-0655-4592-a3d3-c60e37e11f4e-8&amp;pdp_ext_f=%7B%22sku_id%22%3A%2265583297495%22%7D&amp;pdp_npi=2%40dis%21EUR%211.27%211.23%21%21%21%21%21%402100bddd16651281964884006e0ba3%2165583297495%21sea&amp;curPageLogUid=97KgxLHc40fl</t>
+  </si>
+  <si>
+    <t>Capteur</t>
+  </si>
+  <si>
+    <t>Capteur ultrason</t>
+  </si>
+  <si>
+    <t>MG90S SG90 9g – avion télécommandé Miniature, équipement de direction à ailes fixes, modèle d'avion 250 450, hélicoptère, voiture jouet | AliExpress</t>
+  </si>
+  <si>
+    <t>Servo SG90</t>
+  </si>
+  <si>
+    <t>Servo</t>
   </si>
 </sst>
 </file>
@@ -149,7 +176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -160,6 +187,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -478,7 +506,7 @@
   <dimension ref="B2:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +616,7 @@
       <c r="G5" s="1">
         <v>5</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -616,7 +644,7 @@
       <c r="G6" s="1">
         <v>71</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -624,24 +652,84 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>109.99</v>
+      </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>109.99</v>
+      </c>
+      <c r="G7" s="1">
+        <v>363</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.23</v>
+      </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.23</v>
+      </c>
+      <c r="G8" s="1">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.9</v>
+      </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9</v>
+      </c>
+      <c r="G9" s="1">
+        <v>9</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -721,8 +809,13 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{04A81B08-ED2E-4B28-942B-ACF961888121}"/>
+    <hyperlink ref="H8" r:id="rId2" display="https://fr.aliexpress.com/item/32880359778.html?spm=a2g0o.productlist.0.0.57cd4b01vpsFWo&amp;algo_pvid=1dd6e5ce-0655-4592-a3d3-c60e37e11f4e&amp;algo_exp_id=1dd6e5ce-0655-4592-a3d3-c60e37e11f4e-8&amp;pdp_ext_f=%7B%22sku_id%22%3A%2265583297495%22%7D&amp;pdp_npi=2%40dis%21EUR%211.27%211.23%21%21%21%21%21%402100bddd16651281964884006e0ba3%2165583297495%21sea&amp;curPageLogUid=97KgxLHc40fl" xr:uid="{A08DFE88-9A6B-407E-8EE2-7A8699A25427}"/>
+    <hyperlink ref="H7" r:id="rId3" display="https://www.amazon.fr/Scanradius-LIDAR-Sensorscanner-Vermeidung-Hindernissen-Navigation/dp/B07VLFGT27/ref=asc_df_B07VLFGT27/?tag=googshopfr-21&amp;linkCode=df0&amp;hvadid=411439987151&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17858514273165735039&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9054956&amp;hvtargid=pla-843524520219&amp;psc=1&amp;tag=&amp;ref=&amp;adgrpid=95238321811&amp;hvpone=&amp;hvptwo=&amp;hvadid=411439987151&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17858514273165735039&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9054956&amp;hvtargid=pla-843524520219" xr:uid="{59B75DE9-FFB1-4E5B-8133-126D03E53BEB}"/>
+    <hyperlink ref="H6" r:id="rId4" display="https://fr.aliexpress.com/item/1005002248466483.html?spm=a2g0o.productlist.0.0.26b421abnfmSYq&amp;algo_pvid=47e13833-caa3-437f-9553-01e57919688d&amp;algo_exp_id=47e13833-caa3-437f-9553-01e57919688d-45&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000019728171207%22%7D&amp;pdp_npi=2%40dis%21EUR%218.39%217.14%21%21%214.99%21%21%400b0a050b16651254583308408eed58%2112000019728171207%21sea&amp;curPageLogUid=nz516Ros1nuv" xr:uid="{9FC859F5-FCB4-423E-AD9C-C5ACA81E0215}"/>
+    <hyperlink ref="H5" r:id="rId5" display="https://fr.aliexpress.com/item/32997948364.html?algo_pvid=f64572da-108a-4531-a5a0-b856b462b1c6&amp;algo_exp_id=f64572da-108a-4531-a5a0-b856b462b1c6-7&amp;pdp_ext_f=%7B%22sku_id%22%3A%2266958865882%22%7D&amp;pdp_npi=2%40dis%21EUR%210.95%210.95%21%21%212.76%21%21%400b0a187b16651255256126173ec49c%2166958865882%21sea&amp;curPageLogUid=OfDWACxdeGQE" xr:uid="{C5EAE7AA-BF47-4AFF-949F-11FFA21234D8}"/>
+    <hyperlink ref="H9" r:id="rId6" display="https://fr.aliexpress.com/item/32807449919.html?spm=a2g0o.productlist.0.0.26ba6ddfwD1PpD&amp;algo_pvid=2c2733ee-cc9e-4061-ba5d-445e38ffbc8f&amp;algo_exp_id=2c2733ee-cc9e-4061-ba5d-445e38ffbc8f-2&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000029113111881%22%7D&amp;pdp_npi=2%40dis%21EUR%212.46%210.24%21%21%211.77%21%21%402100bde316651285671751244ed3c5%2112000029113111881%21sea&amp;curPageLogUid=s9Hmx7xeBNxQ" xr:uid="{EFC63950-DF96-40E0-ACBF-9E536741EE0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/doc/Idées/Biblio/Annexe - liste de composants.xlsx
+++ b/doc/Idées/Biblio/Annexe - liste de composants.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\etude\S5\Projet\Snoopytech\doc\Idées\Biblio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulbi\Dropbox\Mon PC (DESKTOP-CNV4O85)\Desktop\Travail\ROB3\Rob_exp\Projet\Snoopytech\doc\Idées\Biblio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57611FF9-D36D-42D9-9B84-2FCD9FEA9918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D762F7-C423-4C2C-A317-58BE76B9B76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3560E6F7-E16C-476D-B8B1-12EB76F63514}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3560E6F7-E16C-476D-B8B1-12EB76F63514}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Moteurs</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>Servo</t>
+  </si>
+  <si>
+    <t>Caméra</t>
+  </si>
+  <si>
+    <t>Caméra Raspberry Pi</t>
+  </si>
+  <si>
+    <t>https://fr.aliexpress.com/item/1005003187542470.html?gps-id=pcDetailBottomMoreOtherSeller&amp;scm=1007.40050.281175.0&amp;scm_id=1007.40050.281175.0&amp;scm-url=1007.40050.281175.0&amp;pvid=c304510e-3a7a-4b7f-a621-847c700dce94&amp;_t=gps-id:pcDetailBottomMoreOtherSeller,scm-url:1007.40050.281175.0,pvid:c304510e-3a7a-4b7f-a621-847c700dce94,tpp_buckets:668%232846%238115%232000&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000024565611228%22%2C%22sceneId%22%3A%2230050%22%7D&amp;pdp_npi=2%40dis%21EUR%217.75%216.28%21%21%21%21%21%40211b58ee16651293083523082e1a4c%2112000024565611228%21rec</t>
   </si>
 </sst>
 </file>
@@ -506,20 +515,20 @@
   <dimension ref="B2:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" style="1" customWidth="1"/>
-    <col min="4" max="8" width="11.42578125" style="1"/>
-    <col min="9" max="9" width="34.42578125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="16.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="1" customWidth="1"/>
+    <col min="4" max="8" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="34.44140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
@@ -542,7 +551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -596,7 +605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
@@ -623,7 +632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
@@ -651,7 +660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -678,7 +687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -705,7 +714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
@@ -732,78 +741,98 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E10" s="2"/>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6.28</v>
+      </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6.28</v>
+      </c>
+      <c r="G10" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E11" s="2"/>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E12" s="2"/>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E13" s="2"/>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E27" s="2"/>
     </row>
   </sheetData>

--- a/doc/Idées/Biblio/Annexe - liste de composants.xlsx
+++ b/doc/Idées/Biblio/Annexe - liste de composants.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t xml:space="preserve">Nom</t>
   </si>
@@ -122,6 +122,27 @@
   </si>
   <si>
     <t xml:space="preserve">https://fr.aliexpress.com/item/1005003187542470.html?gps-id=pcDetailBottomMoreOtherSeller&amp;scm=1007.40050.281175.0&amp;scm_id=1007.40050.281175.0&amp;scm-url=1007.40050.281175.0&amp;pvid=c304510e-3a7a-4b7f-a621-847c700dce94&amp;_t=gps-id:pcDetailBottomMoreOtherSeller,scm-url:1007.40050.281175.0,pvid:c304510e-3a7a-4b7f-a621-847c700dce94,tpp_buckets:668%232846%238115%232000&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000024565611228%22%2C%22sceneId%22%3A%2230050%22%7D&amp;pdp_npi=2%40dis%21EUR%217.75%216.28%21%21%21%21%21%40211b58ee16651293083523082e1a4c%2112000024565611228%21rec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potentiometre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potentiometre 10K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fr.aliexpress.com/item/32996236826.html?spm=a2g0o.detail.1000060.3.2dfd75067cm24G&amp;gps-id=pcDetailBottomMoreThisSeller&amp;scm=1007.13339.291025.0&amp;scm_id=1007.13339.291025.0&amp;scm-url=1007.13339.291025.0&amp;pvid=aa5bbdd6-37f4-4697-8922-a5d47906774f&amp;_t=gps-id%3ApcDetailBottomMoreThisSeller%2Cscm-url%3A1007.13339.291025.0%2Cpvid%3Aaa5bbdd6-37f4-4697-8922-a5d47906774f%2Ctpp_buckets%3A668%232846%238116%232002&amp;pdp_ext_f=%7B%22sku_id%22%3A%2266994016160%22%2C%22sceneId%22%3A%223339%22%7D&amp;pdp_npi=2%40dis%21EUR%210.77%210.68%21%21%21%21%21%402103222316652351797365094e1aae%2166994016160%21rec&amp;gatewayAdapt=glo2fra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color: 10 K Ohm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accelerometre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPU6050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fr.aliexpress.com/item/32340949017.html?spm=a2g0o.productlist.0.0.587312adnNgBZj&amp;algo_pvid=19376db7-79d4-41f3-91f8-c1871eddb2a7&amp;algo_exp_id=19376db7-79d4-41f3-91f8-c1871eddb2a7-0&amp;pdp_ext_f=%7B%22sku_id%22%3A%2210000000609322940%22%7D&amp;pdp_npi=2%40dis%21EUR%211.62%211.42%21%21%211.71%21%21%402101e9d416652354615517308e70c3%2110000000609322940%21sea&amp;curPageLogUid=c2sYDhCk9WsN</t>
   </si>
 </sst>
 </file>
@@ -311,7 +332,7 @@
   <dimension ref="B2:I27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -565,18 +586,59 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="2"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0.68</v>
+      </c>
       <c r="F11" s="2" t="n">
-        <f aca="false">E11*D11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="2"/>
+        <f aca="false">E11*D11+0.99</f>
+        <v>2.35</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <f aca="false">1.42+1.17</f>
+        <v>2.59</v>
+      </c>
       <c r="F12" s="2" t="n">
         <f aca="false">E12*D12</f>
-        <v>0</v>
+        <v>2.59</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,6 +702,8 @@
     <hyperlink ref="H7" r:id="rId4" display="https://www.amazon.fr/Scanradius-LIDAR-Sensorscanner-Vermeidung-Hindernissen-Navigation/dp/B07VLFGT27/ref=asc_df_B07VLFGT27/?tag=googshopfr-21&amp;linkCode=df0&amp;hvadid=411439987151&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17858514273165735039&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9054956&amp;hvtargid=pla-843524520219&amp;psc=1&amp;tag=&amp;ref=&amp;adgrpid=95238321811&amp;hvpone=&amp;hvptwo=&amp;hvadid=411439987151&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17858514273165735039&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9054956&amp;hvtargid=pla-843524520219"/>
     <hyperlink ref="H8" r:id="rId5" display="https://fr.aliexpress.com/item/32880359778.html?spm=a2g0o.productlist.0.0.57cd4b01vpsFWo&amp;algo_pvid=1dd6e5ce-0655-4592-a3d3-c60e37e11f4e&amp;algo_exp_id=1dd6e5ce-0655-4592-a3d3-c60e37e11f4e-8&amp;pdp_ext_f=%7B%22sku_id%22%3A%2265583297495%22%7D&amp;pdp_npi=2%40dis%21EUR%211.27%211.23%21%21%21%21%21%402100bddd16651281964884006e0ba3%2165583297495%21sea&amp;curPageLogUid=97KgxLHc40fl"/>
     <hyperlink ref="H9" r:id="rId6" display="MG90S SG90 9g – avion télécommandé Miniature, équipement de direction à ailes fixes, modèle d'avion 250 450, hélicoptère, voiture jouet | AliExpress"/>
+    <hyperlink ref="H11" r:id="rId7" display="https://fr.aliexpress.com/item/32996236826.html?spm=a2g0o.detail.1000060.3.2dfd75067cm24G&amp;gps-id=pcDetailBottomMoreThisSeller&amp;scm=1007.13339.291025.0&amp;scm_id=1007.13339.291025.0&amp;scm-url=1007.13339.291025.0&amp;pvid=aa5bbdd6-37f4-4697-8922-a5d47906774f&amp;_t=gps-id%3ApcDetailBottomMoreThisSeller%2Cscm-url%3A1007.13339.291025.0%2Cpvid%3Aaa5bbdd6-37f4-4697-8922-a5d47906774f%2Ctpp_buckets%3A668%232846%238116%232002&amp;pdp_ext_f=%7B%22sku_id%22%3A%2266994016160%22%2C%22sceneId%22%3A%223339%22%7D&amp;pdp_npi=2%40dis%21EUR%210.77%210.68%21%21%21%21%21%402103222316652351797365094e1aae%2166994016160%21rec&amp;gatewayAdapt=glo2fra"/>
+    <hyperlink ref="H12" r:id="rId8" display="https://fr.aliexpress.com/item/32340949017.html?spm=a2g0o.productlist.0.0.587312adnNgBZj&amp;algo_pvid=19376db7-79d4-41f3-91f8-c1871eddb2a7&amp;algo_exp_id=19376db7-79d4-41f3-91f8-c1871eddb2a7-0&amp;pdp_ext_f=%7B%22sku_id%22%3A%2210000000609322940%22%7D&amp;pdp_npi=2%40dis%21EUR%211.62%211.42%21%21%211.71%21%21%402101e9d416652354615517308e70c3%2110000000609322940%21sea&amp;curPageLogUid=c2sYDhCk9WsN"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/doc/Idées/Biblio/Annexe - liste de composants.xlsx
+++ b/doc/Idées/Biblio/Annexe - liste de composants.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t xml:space="preserve">Nom</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">Description</t>
   </si>
   <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
     <t xml:space="preserve">Moteurs</t>
   </si>
   <si>
@@ -58,7 +61,25 @@
     <t xml:space="preserve">ESC</t>
   </si>
   <si>
-    <t xml:space="preserve">40A 2-4S Brushless ESC</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ESC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">40A</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">https://fr.aliexpress.com/item/4000292454786.html?_randl_currency=EUR&amp;_randl_shipto=FR&amp;src=google&amp;src=google&amp;albch=shopping&amp;acnt=248-630-5778&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;gclsrc=aw.ds&amp;albagn=888888&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;src=google&amp;albch=shopping&amp;acnt=248-630-5778&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;gclsrc=aw.ds&amp;albagn=888888&amp;ds_e_adid=609891816697&amp;ds_e_matchtype=&amp;ds_e_device=c&amp;ds_e_network=u&amp;ds_e_product_group_id=296730740870&amp;ds_e_product_id=fr4000292454786&amp;ds_e_product_merchant_id=106992425&amp;ds_e_product_country=FR&amp;ds_e_product_language=fr&amp;ds_e_product_channel=online&amp;ds_e_product_store_id=&amp;ds_url_v=2&amp;albcp=17734099841&amp;albag=138402376763&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;gclid=Cj0KCQjw-fmZBhDtARIsAH6H8qg0xGJT5TuMJTSXX2NO4JghrvjhYpg7kQS8e3w4SDpBwubPR3ropRwaAvvTEALw_wcB&amp;aff_fcid=856d506b29cd4b81823622b76e1e8899-1665077408708-05119-UneMJZVf&amp;aff_fsk=UneMJZVf&amp;aff_platform=aaf&amp;sk=UneMJZVf&amp;aff_trace_key=856d506b29cd4b81823622b76e1e8899-1665077408708-05119-UneMJZVf&amp;terminal_id=92cee12862e14454b4d4f189f0ccc9be&amp;afSmartRedirect=y</t>
@@ -91,7 +112,7 @@
     <t xml:space="preserve">Lidar</t>
   </si>
   <si>
-    <t xml:space="preserve">youyeetoo Slamtec RPLIDAR</t>
+    <t xml:space="preserve">youyeetoo Slamtec RP LIDAR</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.fr/Scanradius-LIDAR-Sensorscanner-Vermeidung-Hindernissen-Navigation/dp/B07VLFGT27/ref=asc_df_B07VLFGT27/?tag=googshopfr-21&amp;linkCode=df0&amp;hvadid=411439987151&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17858514273165735039&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9054956&amp;hvtargid=pla-843524520219&amp;psc=1&amp;tag=&amp;ref=&amp;adgrpid=95238321811&amp;hvpone=&amp;hvptwo=&amp;hvadid=411439987151&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17858514273165735039&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9054956&amp;hvtargid=pla-843524520219</t>
@@ -139,10 +160,46 @@
     <t xml:space="preserve">Accelerometre</t>
   </si>
   <si>
-    <t xml:space="preserve">MPU6050</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Accelerometre </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">MPU6050</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">https://fr.aliexpress.com/item/32340949017.html?spm=a2g0o.productlist.0.0.587312adnNgBZj&amp;algo_pvid=19376db7-79d4-41f3-91f8-c1871eddb2a7&amp;algo_exp_id=19376db7-79d4-41f3-91f8-c1871eddb2a7-0&amp;pdp_ext_f=%7B%22sku_id%22%3A%2210000000609322940%22%7D&amp;pdp_npi=2%40dis%21EUR%211.62%211.42%21%21%211.71%21%21%402101e9d416652354615517308e70c3%2110000000609322940%21sea&amp;curPageLogUid=c2sYDhCk9WsN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corps et pattes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tube en fibre de carbone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motorisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fr.aliexpress.com/item/4000292454786.html?_randl_currency=EUR&amp;_randl_shipto=FR&amp;src=google&amp;src=google&amp;albch=shopping&amp;acnt=248-630-5778&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;gclsrc=aw.ds&amp;albagn=888888&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;src=google&amp;albch=shopping&amp;acnt=248-630-5778&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;gclsrc=aw.ds&amp;albagn=888888&amp;ds_e_adid=609891816697&amp;ds_e_matchtype=&amp;ds_e_device=c&amp;ds_e_network=u&amp;ds_e_product_group_id=296730740870&amp;ds_e_product_id=fr4000292454786&amp;ds_e_product_merchant_id=106992425&amp;ds_e_product_country=FR&amp;ds_e_product_language=fr&amp;ds_e_product_channel=online&amp;ds_e_product_store_id=&amp;ds_url_v=2&amp;albcp=17734099841&amp;albag=138402376763&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;gclid=Cj0KCQjw-fmZBhDtARIsAH6H8qg0xGJT5TuMJTSXX2NO4JghrvjhYpg7kQS8e3w4SDpBwubPR3ropRwaAvvTEALw_wcB&amp;aff_fcid=856d506b29cd4b81823622b76e1e8899-1665077408708-05119-UneMJZVf&amp;aff_fsk=UneMJZVf&amp;aff_platform=aaf&amp;sk=UneMJZVf&amp;aff_trace_key=856d506b29cd4b81823622b76e1e8899-1665077408708-05119-UneMJZVf&amp;terminal_id=92cee12862e14454b4d4f189f0ccc9be&amp;afSmartRedirect=y/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capteurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fr.aliexpress.com/item/1005003187542470.html?gps-id=pcDetailBottomMoreOtherSeller&amp;scm=1007.40050.281175.0&amp;scm_id=1007.40050.281175.0&amp;scm-url=1007.40050.281175.0&amp;pvid=c304510e-3a7a-4b7f-a621-847c700dce94&amp;_t=gps-id:pcDetailBottomMoreOtherSeller,scm-url:1007.40050.281175.0,pvid:c304510e-3a7a-4b7f-a621-847c700dce94,tpp_buckets:668%232846%238115%232000&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000024565611228%22%2C%22sceneId%22%3A%2230050%22%7D&amp;pdp_npi=2%40dis%21EUR%217.75%216.28%21%21%21%21%21%40211b58ee16651293083523082e1a4c%2112000024565611228%21rec/</t>
   </si>
 </sst>
 </file>
@@ -153,7 +210,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* \-??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -184,21 +241,97 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE69AFF"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6D9FF"/>
+        <bgColor rgb="FFD9F6FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9AFF9A"/>
+        <bgColor rgb="FF99E8FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9FFD9"/>
+        <bgColor rgb="FFD9F6FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99E8FF"/>
+        <bgColor rgb="FFD9F6FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9F6FF"/>
+        <bgColor rgb="FFD9FFD9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -230,7 +363,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -247,8 +380,100 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -282,11 +507,11 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFD9F6FF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFF6D9FF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -296,12 +521,12 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FF9AFF9A"/>
+      <rgbColor rgb="FFD9FFD9"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF99E8FF"/>
       <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFE69AFF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
@@ -329,10 +554,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:I27"/>
+  <dimension ref="A2:I31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H41" activeCellId="0" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -370,38 +595,44 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>12</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>25.31</v>
+        <v>26.1</v>
       </c>
       <c r="F3" s="2" t="n">
         <f aca="false">D3*E3</f>
-        <v>303.72</v>
+        <v>313.2</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>155</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>4</v>
@@ -417,18 +648,21 @@
         <v>33.2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>8</v>
@@ -444,18 +678,21 @@
         <v>5</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>1</v>
@@ -472,18 +709,18 @@
         <v>71</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>1</v>
@@ -499,18 +736,18 @@
         <v>363</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>1</v>
@@ -526,18 +763,18 @@
         <v>13</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>1</v>
@@ -552,19 +789,19 @@
       <c r="G9" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>30</v>
+      <c r="H9" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>1</v>
@@ -580,18 +817,18 @@
         <v>18.4</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>2</v>
@@ -607,18 +844,18 @@
         <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>1</v>
@@ -635,10 +872,10 @@
         <v>6</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,35 +901,305 @@
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="2"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <f aca="false">18.37+4.99</f>
+        <v>23.36</v>
+      </c>
+      <c r="F20" s="11" t="n">
+        <f aca="false">E20*D20</f>
+        <v>23.36</v>
+      </c>
+      <c r="G20" s="10" t="n">
+        <v>71</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0"/>
+      <c r="C21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E21" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F21" s="11" t="n">
+        <f aca="false">E21*D21</f>
+        <v>7.6</v>
+      </c>
+      <c r="G21" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="E23" s="16" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F23" s="16" t="n">
+        <f aca="false">D23*E23</f>
+        <v>313.2</v>
+      </c>
+      <c r="G23" s="15" t="n">
+        <v>155</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" s="16" t="n">
+        <v>27.65</v>
+      </c>
+      <c r="F24" s="16" t="n">
+        <f aca="false">D24*E24</f>
+        <v>110.6</v>
+      </c>
+      <c r="G24" s="15" t="n">
+        <f aca="false">33.2*4</f>
+        <v>132.8</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="22" t="n">
+        <v>109.99</v>
+      </c>
+      <c r="F26" s="22" t="n">
+        <f aca="false">E26*D26</f>
+        <v>109.99</v>
+      </c>
+      <c r="G26" s="21" t="n">
+        <v>363</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="22" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F27" s="22" t="n">
+        <f aca="false">E27*D27</f>
+        <v>1.23</v>
+      </c>
+      <c r="G27" s="21" t="n">
+        <v>13</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F28" s="22" t="n">
+        <f aca="false">E28*D28</f>
+        <v>1.9</v>
+      </c>
+      <c r="G28" s="21" t="n">
+        <v>9</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="22" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="F29" s="22" t="n">
+        <f aca="false">E29*D29</f>
+        <v>6.28</v>
+      </c>
+      <c r="G29" s="21" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="22" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F30" s="22" t="n">
+        <f aca="false">E30*D30+0.99</f>
+        <v>2.35</v>
+      </c>
+      <c r="G30" s="21" t="n">
+        <v>10</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="26" t="n">
+        <f aca="false">1.42+1.17</f>
+        <v>2.59</v>
+      </c>
+      <c r="F31" s="26" t="n">
+        <f aca="false">E31*D31</f>
+        <v>2.59</v>
+      </c>
+      <c r="G31" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -704,6 +1211,16 @@
     <hyperlink ref="H9" r:id="rId6" display="MG90S SG90 9g – avion télécommandé Miniature, équipement de direction à ailes fixes, modèle d'avion 250 450, hélicoptère, voiture jouet | AliExpress"/>
     <hyperlink ref="H11" r:id="rId7" display="https://fr.aliexpress.com/item/32996236826.html?spm=a2g0o.detail.1000060.3.2dfd75067cm24G&amp;gps-id=pcDetailBottomMoreThisSeller&amp;scm=1007.13339.291025.0&amp;scm_id=1007.13339.291025.0&amp;scm-url=1007.13339.291025.0&amp;pvid=aa5bbdd6-37f4-4697-8922-a5d47906774f&amp;_t=gps-id%3ApcDetailBottomMoreThisSeller%2Cscm-url%3A1007.13339.291025.0%2Cpvid%3Aaa5bbdd6-37f4-4697-8922-a5d47906774f%2Ctpp_buckets%3A668%232846%238116%232002&amp;pdp_ext_f=%7B%22sku_id%22%3A%2266994016160%22%2C%22sceneId%22%3A%223339%22%7D&amp;pdp_npi=2%40dis%21EUR%210.77%210.68%21%21%21%21%21%402103222316652351797365094e1aae%2166994016160%21rec&amp;gatewayAdapt=glo2fra"/>
     <hyperlink ref="H12" r:id="rId8" display="https://fr.aliexpress.com/item/32340949017.html?spm=a2g0o.productlist.0.0.587312adnNgBZj&amp;algo_pvid=19376db7-79d4-41f3-91f8-c1871eddb2a7&amp;algo_exp_id=19376db7-79d4-41f3-91f8-c1871eddb2a7-0&amp;pdp_ext_f=%7B%22sku_id%22%3A%2210000000609322940%22%7D&amp;pdp_npi=2%40dis%21EUR%211.62%211.42%21%21%211.71%21%21%402101e9d416652354615517308e70c3%2110000000609322940%21sea&amp;curPageLogUid=c2sYDhCk9WsN"/>
+    <hyperlink ref="H20" r:id="rId9" display="https://fr.aliexpress.com/item/1005002248466483.html?spm=a2g0o.productlist.0.0.26b421abnfmSYq&amp;algo_pvid=47e13833-caa3-437f-9553-01e57919688d&amp;algo_exp_id=47e13833-caa3-437f-9553-01e57919688d-45&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000019728171207%22%7D&amp;pdp_npi=2%40dis%21EUR%218.39%217.14%21%21%214.99%21%21%400b0a050b16651254583308408eed58%2112000019728171207%21sea&amp;curPageLogUid=nz516Ros1nuv"/>
+    <hyperlink ref="H21" r:id="rId10" display="https://fr.aliexpress.com/item/32997948364.html?algo_pvid=f64572da-108a-4531-a5a0-b856b462b1c6&amp;algo_exp_id=f64572da-108a-4531-a5a0-b856b462b1c6-7&amp;pdp_ext_f=%7B%22sku_id%22%3A%2266958865882%22%7D&amp;pdp_npi=2%40dis%21EUR%210.95%210.95%21%21%212.76%21%21%400b0a187b16651255256126173ec49c%2166958865882%21sea&amp;curPageLogUid=OfDWACxdeGQE"/>
+    <hyperlink ref="H23" r:id="rId11" display="https://french.alibaba.com/product-detail/ACK-factory-High-End-Brushless-Motor-60113882656.html"/>
+    <hyperlink ref="H24" r:id="rId12" display="https://fr.aliexpress.com/item/4000292454786.html?_randl_currency=EUR&amp;_randl_shipto=FR&amp;src=google&amp;src=google&amp;albch=shopping&amp;acnt=248-630-5778&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;gclsrc=aw.ds&amp;albagn=888888&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;src=google&amp;albch=shopping&amp;acnt=248-630-5778&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;gclsrc=aw.ds&amp;albagn=888888&amp;ds_e_adid=609891816697&amp;ds_e_matchtype=&amp;ds_e_device=c&amp;ds_e_network=u&amp;ds_e_product_group_id=296730740870&amp;ds_e_product_id=fr4000292454786&amp;ds_e_product_merchant_id=106992425&amp;ds_e_product_country=FR&amp;ds_e_product_language=fr&amp;ds_e_product_channel=online&amp;ds_e_product_store_id=&amp;ds_url_v=2&amp;albcp=17734099841&amp;albag=138402376763&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;gclid=Cj0KCQjw-fmZBhDtARIsAH6H8qg0xGJT5TuMJTSXX2NO4JghrvjhYpg7kQS8e3w4SDpBwubPR3ropRwaAvvTEALw_wcB&amp;aff_fcid=856d506b29cd4b81823622b76e1e8899-1665077408708-05119-UneMJZVf&amp;aff_fsk=UneMJZVf&amp;aff_platform=aaf&amp;sk=UneMJZVf&amp;aff_trace_key=856d506b29cd4b81823622b76e1e8899-1665077408708-05119-UneMJZVf&amp;terminal_id=92cee12862e14454b4d4f189f0ccc9be&amp;afSmartRedirect=y/"/>
+    <hyperlink ref="H26" r:id="rId13" display="https://www.amazon.fr/Scanradius-LIDAR-Sensorscanner-Vermeidung-Hindernissen-Navigation/dp/B07VLFGT27/ref=asc_df_B07VLFGT27/?tag=googshopfr-21&amp;linkCode=df0&amp;hvadid=411439987151&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17858514273165735039&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9054956&amp;hvtargid=pla-843524520219&amp;psc=1&amp;tag=&amp;ref=&amp;adgrpid=95238321811&amp;hvpone=&amp;hvptwo=&amp;hvadid=411439987151&amp;hvpos=&amp;hvnetw=g&amp;hvrand=17858514273165735039&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9054956&amp;hvtargid=pla-843524520219"/>
+    <hyperlink ref="H27" r:id="rId14" display="https://fr.aliexpress.com/item/32880359778.html?spm=a2g0o.productlist.0.0.57cd4b01vpsFWo&amp;algo_pvid=1dd6e5ce-0655-4592-a3d3-c60e37e11f4e&amp;algo_exp_id=1dd6e5ce-0655-4592-a3d3-c60e37e11f4e-8&amp;pdp_ext_f=%7B%22sku_id%22%3A%2265583297495%22%7D&amp;pdp_npi=2%40dis%21EUR%211.27%211.23%21%21%21%21%21%402100bddd16651281964884006e0ba3%2165583297495%21sea&amp;curPageLogUid=97KgxLHc40fl"/>
+    <hyperlink ref="H28" r:id="rId15" display="MG90S SG90 9g – avion télécommandé Miniature, équipement de direction à ailes fixes, modèle d'avion 250 450, hélicoptère, voiture jouet | AliExpress"/>
+    <hyperlink ref="H29" r:id="rId16" display="https://fr.aliexpress.com/item/1005003187542470.html?gps-id=pcDetailBottomMoreOtherSeller&amp;scm=1007.40050.281175.0&amp;scm_id=1007.40050.281175.0&amp;scm-url=1007.40050.281175.0&amp;pvid=c304510e-3a7a-4b7f-a621-847c700dce94&amp;_t=gps-id:pcDetailBottomMoreOtherSeller,scm-url:1007.40050.281175.0,pvid:c304510e-3a7a-4b7f-a621-847c700dce94,tpp_buckets:668%232846%238115%232000&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000024565611228%22%2C%22sceneId%22%3A%2230050%22%7D&amp;pdp_npi=2%40dis%21EUR%217.75%216.28%21%21%21%21%21%40211b58ee16651293083523082e1a4c%2112000024565611228%21rec/"/>
+    <hyperlink ref="H30" r:id="rId17" display="https://fr.aliexpress.com/item/32996236826.html?spm=a2g0o.detail.1000060.3.2dfd75067cm24G&amp;gps-id=pcDetailBottomMoreThisSeller&amp;scm=1007.13339.291025.0&amp;scm_id=1007.13339.291025.0&amp;scm-url=1007.13339.291025.0&amp;pvid=aa5bbdd6-37f4-4697-8922-a5d47906774f&amp;_t=gps-id%3ApcDetailBottomMoreThisSeller%2Cscm-url%3A1007.13339.291025.0%2Cpvid%3Aaa5bbdd6-37f4-4697-8922-a5d47906774f%2Ctpp_buckets%3A668%232846%238116%232002&amp;pdp_ext_f=%7B%22sku_id%22%3A%2266994016160%22%2C%22sceneId%22%3A%223339%22%7D&amp;pdp_npi=2%40dis%21EUR%210.77%210.68%21%21%21%21%21%402103222316652351797365094e1aae%2166994016160%21rec&amp;gatewayAdapt=glo2fra"/>
+    <hyperlink ref="H31" r:id="rId18" display="https://fr.aliexpress.com/item/32340949017.html?spm=a2g0o.productlist.0.0.587312adnNgBZj&amp;algo_pvid=19376db7-79d4-41f3-91f8-c1871eddb2a7&amp;algo_exp_id=19376db7-79d4-41f3-91f8-c1871eddb2a7-0&amp;pdp_ext_f=%7B%22sku_id%22%3A%2210000000609322940%22%7D&amp;pdp_npi=2%40dis%21EUR%211.62%211.42%21%21%211.71%21%21%402101e9d416652354615517308e70c3%2110000000609322940%21sea&amp;curPageLogUid=c2sYDhCk9WsN"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/doc/Idées/Biblio/Annexe - liste de composants.xlsx
+++ b/doc/Idées/Biblio/Annexe - liste de composants.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
   <si>
     <t xml:space="preserve">Nom</t>
   </si>
@@ -201,14 +201,18 @@
   <si>
     <t xml:space="preserve">https://fr.aliexpress.com/item/1005003187542470.html?gps-id=pcDetailBottomMoreOtherSeller&amp;scm=1007.40050.281175.0&amp;scm_id=1007.40050.281175.0&amp;scm-url=1007.40050.281175.0&amp;pvid=c304510e-3a7a-4b7f-a621-847c700dce94&amp;_t=gps-id:pcDetailBottomMoreOtherSeller,scm-url:1007.40050.281175.0,pvid:c304510e-3a7a-4b7f-a621-847c700dce94,tpp_buckets:668%232846%238115%232000&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000024565611228%22%2C%22sceneId%22%3A%2230050%22%7D&amp;pdp_npi=2%40dis%21EUR%217.75%216.28%21%21%21%21%21%40211b58ee16651293083523082e1a4c%2112000024565611228%21rec/</t>
   </si>
+  <si>
+    <t xml:space="preserve">Poids total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* \-??\ [$€-40C]_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -363,7 +367,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -416,6 +420,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -473,6 +481,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -554,10 +574,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:I31"/>
+  <dimension ref="A2:J32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H41" activeCellId="0" sqref="H41"/>
+      <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -959,6 +979,10 @@
       <c r="I20" s="10" t="s">
         <v>22</v>
       </c>
+      <c r="J20" s="13" t="n">
+        <f aca="false">G20*D20</f>
+        <v>71</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0"/>
@@ -984,224 +1008,290 @@
       <c r="I21" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="J21" s="13" t="n">
+        <f aca="false">G21*D21</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="13" t="n">
+        <f aca="false">G22*D22</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="15" t="n">
+      <c r="D23" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="E23" s="16" t="n">
+      <c r="E23" s="17" t="n">
         <v>26.1</v>
       </c>
-      <c r="F23" s="16" t="n">
+      <c r="F23" s="17" t="n">
         <f aca="false">D23*E23</f>
         <v>313.2</v>
       </c>
-      <c r="G23" s="15" t="n">
+      <c r="G23" s="16" t="n">
         <v>155</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="J23" s="13" t="n">
+        <f aca="false">G23*D23</f>
+        <v>1860</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="15" t="n">
+      <c r="D24" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="E24" s="16" t="n">
+      <c r="E24" s="17" t="n">
         <v>27.65</v>
       </c>
-      <c r="F24" s="16" t="n">
+      <c r="F24" s="17" t="n">
         <f aca="false">D24*E24</f>
         <v>110.6</v>
       </c>
-      <c r="G24" s="15" t="n">
+      <c r="G24" s="16" t="n">
         <f aca="false">33.2*4</f>
         <v>132.8</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="16" t="s">
         <v>15</v>
       </c>
+      <c r="J24" s="13" t="n">
+        <f aca="false">G24*D24</f>
+        <v>531.2</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="13" t="n">
+        <f aca="false">G25*D25</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="21" t="n">
+      <c r="D26" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="E26" s="22" t="n">
+      <c r="E26" s="23" t="n">
         <v>109.99</v>
       </c>
-      <c r="F26" s="22" t="n">
+      <c r="F26" s="23" t="n">
         <f aca="false">E26*D26</f>
         <v>109.99</v>
       </c>
-      <c r="G26" s="21" t="n">
+      <c r="G26" s="22" t="n">
         <v>363</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="22" t="s">
         <v>11</v>
       </c>
+      <c r="J26" s="13" t="n">
+        <f aca="false">G26*D26</f>
+        <v>363</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="21" t="n">
+      <c r="D27" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="22" t="n">
+      <c r="E27" s="23" t="n">
         <v>1.23</v>
       </c>
-      <c r="F27" s="22" t="n">
+      <c r="F27" s="23" t="n">
         <f aca="false">E27*D27</f>
         <v>1.23</v>
       </c>
-      <c r="G27" s="21" t="n">
+      <c r="G27" s="22" t="n">
         <v>13</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="22" t="s">
         <v>11</v>
       </c>
+      <c r="J27" s="13" t="n">
+        <f aca="false">G27*D27</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="21" t="n">
+      <c r="D28" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="22" t="n">
+      <c r="E28" s="23" t="n">
         <v>1.9</v>
       </c>
-      <c r="F28" s="22" t="n">
+      <c r="F28" s="23" t="n">
         <f aca="false">E28*D28</f>
         <v>1.9</v>
       </c>
-      <c r="G28" s="21" t="n">
+      <c r="G28" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="22" t="s">
         <v>11</v>
       </c>
+      <c r="J28" s="13" t="n">
+        <f aca="false">G28*D28</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="21" t="n">
+      <c r="D29" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="22" t="n">
+      <c r="E29" s="23" t="n">
         <v>6.28</v>
       </c>
-      <c r="F29" s="22" t="n">
+      <c r="F29" s="23" t="n">
         <f aca="false">E29*D29</f>
         <v>6.28</v>
       </c>
-      <c r="G29" s="21" t="n">
+      <c r="G29" s="22" t="n">
         <v>18.4</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="22" t="s">
         <v>11</v>
       </c>
+      <c r="J29" s="13" t="n">
+        <f aca="false">G29*D29</f>
+        <v>18.4</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="21" t="n">
+      <c r="D30" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="E30" s="22" t="n">
+      <c r="E30" s="23" t="n">
         <v>0.68</v>
       </c>
-      <c r="F30" s="22" t="n">
+      <c r="F30" s="23" t="n">
         <f aca="false">E30*D30+0.99</f>
         <v>2.35</v>
       </c>
-      <c r="G30" s="21" t="n">
+      <c r="G30" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H30" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="22" t="s">
         <v>38</v>
       </c>
+      <c r="J30" s="13" t="n">
+        <f aca="false">G30*D30</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="25" t="n">
+      <c r="D31" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="E31" s="26" t="n">
+      <c r="E31" s="27" t="n">
         <f aca="false">1.42+1.17</f>
         <v>2.59</v>
       </c>
-      <c r="F31" s="26" t="n">
+      <c r="F31" s="27" t="n">
         <f aca="false">E31*D31</f>
         <v>2.59</v>
       </c>
-      <c r="G31" s="25" t="n">
+      <c r="G31" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="H31" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I31" s="27" t="s">
+      <c r="I31" s="28" t="s">
         <v>11</v>
       </c>
+      <c r="J31" s="13" t="n">
+        <f aca="false">G31*D31</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="30" t="n">
+        <f aca="false">SUM(F20:F31)</f>
+        <v>579.1</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="31" t="n">
+        <f aca="false">SUM(J20:J31)</f>
+        <v>2931.6</v>
+      </c>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E32:F32"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" display="https://french.alibaba.com/product-detail/ACK-factory-High-End-Brushless-Motor-60113882656.html"/>
     <hyperlink ref="H5" r:id="rId2" display="https://fr.aliexpress.com/item/32997948364.html?algo_pvid=f64572da-108a-4531-a5a0-b856b462b1c6&amp;algo_exp_id=f64572da-108a-4531-a5a0-b856b462b1c6-7&amp;pdp_ext_f=%7B%22sku_id%22%3A%2266958865882%22%7D&amp;pdp_npi=2%40dis%21EUR%210.95%210.95%21%21%212.76%21%21%400b0a187b16651255256126173ec49c%2166958865882%21sea&amp;curPageLogUid=OfDWACxdeGQE"/>

--- a/doc/Idées/Biblio/Annexe - liste de composants.xlsx
+++ b/doc/Idées/Biblio/Annexe - liste de composants.xlsx
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Potentiometre 10K</t>
   </si>
   <si>
-    <t xml:space="preserve">https://fr.aliexpress.com/item/1005001421294754.html?spm=a2g0o.detail.1000014.14.6d93d6c1kfyDHn&amp;gps-id=pcDetailBottomMoreOtherSeller&amp;scm=1007.40050.281175.0&amp;scm_id=1007.40050.281175.0&amp;scm-url=1007.40050.281175.0&amp;pvid=0c4a9003-02ec-45be-823d-ab61eb9fdcb9&amp;_t=gps-id:pcDetailBottomMoreOtherSeller,scm-url:1007.40050.281175.0,pvid:0c4a9003-02ec-45be-823d-ab61eb9fdcb9,tpp_buckets:668%232846%238116%232002&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000016052827770%22%2C%22sceneId%22%3A%2230050%22%7D&amp;pdp_npi=2%40dis%21EUR%210.64%210.5%21%21%21%21%21%402101f6b416658298845222455e1af7%2112000016052827770%21rec</t>
+    <t xml:space="preserve">https://fr.aliexpress.com/item/1005002766893077.html?spm=a2g0o.detail.1000014.28.6d93d6c1fPOoi0&amp;gps-id=pcDetailBottomMoreOtherSeller&amp;scm=1007.40050.281175.0&amp;scm_id=1007.40050.281175.0&amp;scm-url=1007.40050.281175.0&amp;pvid=c4eb49e9-017c-42e1-bc5a-36d0b91caa96&amp;_t=gps-id:pcDetailBottomMoreOtherSeller,scm-url:1007.40050.281175.0,pvid:c4eb49e9-017c-42e1-bc5a-36d0b91caa96,tpp_buckets:668%232846%238116%232002&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000022084500624%22%2C%22sceneId%22%3A%2230050%22%7D&amp;pdp_npi=2%40dis%21EUR%210.42%210.37%21%21%21%21%21%402101f6b416658300092574280e1af7%2112000022084500624%21rec</t>
   </si>
   <si>
     <t xml:space="preserve">Color: 10 K Ohm</t>
@@ -473,7 +473,7 @@
   <dimension ref="C1:J32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -747,11 +747,11 @@
         <v>3</v>
       </c>
       <c r="E15" s="18" t="n">
-        <v>0.51</v>
+        <v>0.37</v>
       </c>
       <c r="F15" s="18" t="n">
-        <f aca="false">E15*D15+2</f>
-        <v>3.53</v>
+        <f aca="false">E15*D15+0.99</f>
+        <v>2.1</v>
       </c>
       <c r="G15" s="17" t="n">
         <v>10</v>
@@ -794,7 +794,7 @@
       </c>
       <c r="D17" s="24" t="n">
         <f aca="false">SUM(F5:F16)</f>
-        <v>580.28</v>
+        <v>578.85</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>34</v>
@@ -1003,7 +1003,7 @@
     <hyperlink ref="H12" r:id="rId6" display="https://fr.aliexpress.com/item/32880359778.html?spm=a2g0o.productlist.0.0.57cd4b01vpsFWo&amp;algo_pvid=1dd6e5ce-0655-4592-a3d3-c60e37e11f4e&amp;algo_exp_id=1dd6e5ce-0655-4592-a3d3-c60e37e11f4e-8&amp;pdp_ext_f=%7B%22sku_id%22%3A%2265583297495%22%7D&amp;pdp_npi=2%40dis%21EUR%211.27%211.23%21%21%21%21%21%402100bddd16651281964884006e0ba3%2165583297495%21sea&amp;curPageLogUid=97KgxLHc40fl"/>
     <hyperlink ref="H13" r:id="rId7" display="MG90S SG90 9g – avion télécommandé Miniature, équipement de direction à ailes fixes, modèle d'avion 250 450, hélicoptère, voiture jouet | AliExpress"/>
     <hyperlink ref="H14" r:id="rId8" display="https://fr.aliexpress.com/item/1005003187542470.html?gps-id=pcDetailBottomMoreOtherSeller&amp;scm=1007.40050.281175.0&amp;scm_id=1007.40050.281175.0&amp;scm-url=1007.40050.281175.0&amp;pvid=c304510e-3a7a-4b7f-a621-847c700dce94&amp;_t=gps-id:pcDetailBottomMoreOtherSeller,scm-url:1007.40050.281175.0,pvid:c304510e-3a7a-4b7f-a621-847c700dce94,tpp_buckets:668%232846%238115%232000&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000024565611228%22%2C%22sceneId%22%3A%2230050%22%7D&amp;pdp_npi=2%40dis%21EUR%217.75%216.28%21%21%21%21%21%40211b58ee16651293083523082e1a4c%2112000024565611228%21rec/"/>
-    <hyperlink ref="H15" r:id="rId9" display="https://fr.aliexpress.com/item/1005001421294754.html?spm=a2g0o.detail.1000014.14.6d93d6c1kfyDHn&amp;gps-id=pcDetailBottomMoreOtherSeller&amp;scm=1007.40050.281175.0&amp;scm_id=1007.40050.281175.0&amp;scm-url=1007.40050.281175.0&amp;pvid=0c4a9003-02ec-45be-823d-ab61eb9fdcb9&amp;_t=gps-id:pcDetailBottomMoreOtherSeller,scm-url:1007.40050.281175.0,pvid:0c4a9003-02ec-45be-823d-ab61eb9fdcb9,tpp_buckets:668%232846%238116%232002&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000016052827770%22%2C%22sceneId%22%3A%2230050%22%7D&amp;pdp_npi=2%40dis%21EUR%210.64%210.5%21%21%21%21%21%402101f6b416658298845222455e1af7%2112000016052827770%21rec"/>
+    <hyperlink ref="H15" r:id="rId9" display="https://fr.aliexpress.com/item/1005002766893077.html?spm=a2g0o.detail.1000014.28.6d93d6c1fPOoi0&amp;gps-id=pcDetailBottomMoreOtherSeller&amp;scm=1007.40050.281175.0&amp;scm_id=1007.40050.281175.0&amp;scm-url=1007.40050.281175.0&amp;pvid=c4eb49e9-017c-42e1-bc5a-36d0b91caa96&amp;_t=gps-id:pcDetailBottomMoreOtherSeller,scm-url:1007.40050.281175.0,pvid:c4eb49e9-017c-42e1-bc5a-36d0b91caa96,tpp_buckets:668%232846%238116%232002&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000022084500624%22%2C%22sceneId%22%3A%2230050%22%7D&amp;pdp_npi=2%40dis%21EUR%210.42%210.37%21%21%21%21%21%402101f6b416658300092574280e1af7%2112000022084500624%21rec"/>
     <hyperlink ref="H16" r:id="rId10" display="https://fr.aliexpress.com/item/32340949017.html?spm=a2g0o.productlist.0.0.587312adnNgBZj&amp;algo_pvid=19376db7-79d4-41f3-91f8-c1871eddb2a7&amp;algo_exp_id=19376db7-79d4-41f3-91f8-c1871eddb2a7-0&amp;pdp_ext_f=%7B%22sku_id%22%3A%2210000000609322940%22%7D&amp;pdp_npi=2%40dis%21EUR%211.62%211.42%21%21%211.71%21%21%402101e9d416652354615517308e70c3%2110000000609322940%21sea&amp;curPageLogUid=c2sYDhCk9WsN"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
